--- a/data/trans_camb/P16A99-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A99-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
